--- a/Presentacion 1/resultados_elasticnet_pisa.xlsx
+++ b/Presentacion 1/resultados_elasticnet_pisa.xlsx
@@ -605,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19.22862182161456</v>
+        <v>19.22862182161457</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -621,7 +621,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>14.01952605208369</v>
+        <v>14.01952605208366</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -629,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9.463631090269201</v>
+        <v>9.4636310902692</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -637,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8.45500241733291</v>
+        <v>8.455002417332912</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.115810445475296</v>
+        <v>7.115810445475279</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -653,7 +653,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6.508874607181149</v>
+        <v>6.508874607181157</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -661,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6.272094033829692</v>
+        <v>6.272094033829694</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -669,7 +669,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.083215383498301</v>
+        <v>5.083215383498297</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -677,7 +677,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4.456978700349953</v>
+        <v>4.456978700349951</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -701,7 +701,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.851873460249144</v>
+        <v>3.851873460249136</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -709,7 +709,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3.770564697452095</v>
+        <v>3.770564697452092</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -717,7 +717,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3.763803485922418</v>
+        <v>3.763803485922413</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -725,7 +725,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3.569716835456579</v>
+        <v>3.569716835456575</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -733,7 +733,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3.553520302527711</v>
+        <v>3.553520302527713</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -741,7 +741,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3.512332549584146</v>
+        <v>3.512332549584148</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -757,7 +757,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>3.109545273503571</v>
+        <v>3.10954527350358</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -765,7 +765,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2.844525876828373</v>
+        <v>2.844525876828371</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -773,7 +773,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2.499471803881214</v>
+        <v>2.499471803881215</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -781,7 +781,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2.302709929353218</v>
+        <v>2.302709929353208</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -789,7 +789,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.783088665281375</v>
+        <v>1.783088665281372</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -797,7 +797,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.502797352653936</v>
+        <v>1.502797352653922</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -813,7 +813,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.05735852642407</v>
+        <v>1.057358526424062</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1.019884098407928</v>
+        <v>1.019884098407924</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -829,7 +829,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.8822328156376559</v>
+        <v>0.8822328156376489</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -837,7 +837,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.7726622615207468</v>
+        <v>0.7726622615207469</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -845,7 +845,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.6624398989621063</v>
+        <v>0.662439898962102</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -853,7 +853,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.6606382089711502</v>
+        <v>0.6606382089711492</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -861,7 +861,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.1471632363030686</v>
+        <v>0.147163236303071</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -869,7 +869,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.1246066778148548</v>
+        <v>0.1246066778148613</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -877,7 +877,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.005270564201233464</v>
+        <v>0.005270564201226224</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -949,7 +949,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-0.01462835756817251</v>
+        <v>-0.01462835756816961</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -957,7 +957,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-0.273655193894338</v>
+        <v>-0.2736551938943349</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -965,7 +965,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.6518346730599217</v>
+        <v>-0.6518346730599081</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -973,7 +973,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.8051600866372692</v>
+        <v>-0.8051600866372709</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -981,7 +981,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-0.8620646142755301</v>
+        <v>-0.8620646142755274</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -989,7 +989,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-1.058379891118723</v>
+        <v>-1.058379891118725</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -997,7 +997,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-1.211983097656562</v>
+        <v>-1.211983097656569</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1005,7 +1005,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-1.258348347410274</v>
+        <v>-1.258348347410282</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1013,7 +1013,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-1.586509910810647</v>
+        <v>-1.586509910810638</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1021,7 +1021,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-1.860696015606825</v>
+        <v>-1.860696015606824</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1029,7 +1029,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-2.011220213176208</v>
+        <v>-2.011220213176207</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1045,7 +1045,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-2.477806969220693</v>
+        <v>-2.477806969220697</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1053,7 +1053,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-2.829871713265414</v>
+        <v>-2.82987171326541</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1061,7 +1061,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-2.83314704308314</v>
+        <v>-2.833147043083135</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1069,7 +1069,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-2.867948983073637</v>
+        <v>-2.86794898307364</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1077,7 +1077,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-3.22250054778101</v>
+        <v>-3.222500547781005</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1085,7 +1085,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-3.431261176179474</v>
+        <v>-3.431261176179472</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1093,7 +1093,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-3.718255107395715</v>
+        <v>-3.718255107395721</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1101,7 +1101,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-4.105730108236451</v>
+        <v>-4.105730108236445</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1109,7 +1109,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-4.597091468798189</v>
+        <v>-4.597091468798192</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1117,7 +1117,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-5.714815515957344</v>
+        <v>-5.714815515957342</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1133,7 +1133,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-6.608942909447769</v>
+        <v>-6.608942909447763</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1141,7 +1141,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-6.669433420590603</v>
+        <v>-6.669433420590606</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1157,7 +1157,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-7.412205322278241</v>
+        <v>-7.412205322278239</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1165,7 +1165,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-17.89562065108277</v>
+        <v>-17.89562065108272</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>22.14611587653218</v>
+        <v>22.14611587653215</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1199,7 +1199,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>17.00477366880236</v>
+        <v>17.00477366880227</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>7.883256303896811</v>
+        <v>7.883256303896813</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>7.650363004008973</v>
+        <v>7.650363004008968</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.339864497447207</v>
+        <v>7.339864497447213</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>7.235877397001473</v>
+        <v>7.23587739700147</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6.194730490771097</v>
+        <v>6.194730490771098</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.065235802750702</v>
+        <v>6.065235802750709</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>5.941901561389975</v>
+        <v>5.941901561389978</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>5.887043492047928</v>
+        <v>5.887043492047931</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1279,7 +1279,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>4.74866645072191</v>
+        <v>4.748666450721915</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>4.690137517307946</v>
+        <v>4.690137517307944</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>3.945806676378477</v>
+        <v>3.945806676378482</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>3.619615046706169</v>
+        <v>3.619615046706176</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>3.569356115996659</v>
+        <v>3.569356115996658</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>3.356269199986466</v>
+        <v>3.356269199986464</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>3.05704661692078</v>
+        <v>3.057046616920781</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>2.368732744036809</v>
+        <v>2.368732744036813</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>2.262320800602041</v>
+        <v>2.262320800602038</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>2.046497960369978</v>
+        <v>2.046497960369974</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2.017145189856987</v>
+        <v>2.017145189856981</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>1.602461134680767</v>
+        <v>1.602461134680774</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>1.210990924905432</v>
+        <v>1.210990924905438</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.183017860160363</v>
+        <v>1.183017860160365</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>1.008375360952138</v>
+        <v>1.008375360952133</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>46</v>
       </c>
       <c r="B30">
-        <v>0.8162157874220629</v>
+        <v>0.8162157874220723</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.7788194911886731</v>
+        <v>0.7788194911886696</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.4570923412481826</v>
+        <v>0.4570923412481767</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>21</v>
       </c>
       <c r="B33">
-        <v>0.1936962672988743</v>
+        <v>0.1936962672988684</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>-0.02770162774686688</v>
+        <v>-0.02770162774686444</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>31</v>
       </c>
       <c r="B45">
-        <v>-0.06021819119235479</v>
+        <v>-0.06021819119235075</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.3725699283004011</v>
+        <v>-0.3725699283003943</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>35</v>
       </c>
       <c r="B47">
-        <v>-0.384609243858187</v>
+        <v>-0.3846092438581764</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>-0.4450874386483374</v>
+        <v>-0.4450874386483306</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.5926760872649789</v>
+        <v>-0.5926760872649782</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>45</v>
       </c>
       <c r="B50">
-        <v>-0.761646318088019</v>
+        <v>-0.7616463180880216</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.8215670499958624</v>
+        <v>-0.8215670499958631</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>-1.121536287004112</v>
+        <v>-1.121536287004109</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>49</v>
       </c>
       <c r="B53">
-        <v>-1.682435952137591</v>
+        <v>-1.682435952137582</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>-1.798323271028831</v>
+        <v>-1.798323271028829</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>51</v>
       </c>
       <c r="B55">
-        <v>-2.05107690370688</v>
+        <v>-2.051076903706881</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>55</v>
       </c>
       <c r="B58">
-        <v>-3.407023109944756</v>
+        <v>-3.407023109944751</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>47</v>
       </c>
       <c r="B60">
-        <v>-3.48885965581372</v>
+        <v>-3.488859655813714</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>56</v>
       </c>
       <c r="B61">
-        <v>-3.517865340664071</v>
+        <v>-3.51786534066407</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-3.571406413742875</v>
+        <v>-3.571406413742873</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>59</v>
       </c>
       <c r="B63">
-        <v>-4.243758168684626</v>
+        <v>-4.24375816868463</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>-5.073036840633963</v>
+        <v>-5.073036840633964</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>62</v>
       </c>
       <c r="B65">
-        <v>-5.359865701401848</v>
+        <v>-5.359865701401846</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>63</v>
       </c>
       <c r="B66">
-        <v>-5.857349285368143</v>
+        <v>-5.85734928536813</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>57</v>
       </c>
       <c r="B67">
-        <v>-6.659639855447772</v>
+        <v>-6.659639855447775</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-7.396628682951014</v>
+        <v>-7.396628682951005</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>-9.587177586564996</v>
+        <v>-9.587177586565005</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-20.59516361547698</v>
+        <v>-20.59516361547687</v>
       </c>
     </row>
   </sheetData>
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>24.06873790170559</v>
+        <v>24.06873790170562</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1785,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>15.8525507975741</v>
+        <v>15.85255079757409</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1793,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.47702810811451</v>
+        <v>13.4770281081145</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1801,7 +1801,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10.29059526840294</v>
+        <v>10.29059526840295</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1809,7 +1809,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8.423613188389986</v>
+        <v>8.423613188389982</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1817,7 +1817,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>7.72484886953458</v>
+        <v>7.724848869534594</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1825,7 +1825,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.377376974832634</v>
+        <v>7.377376974832605</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1833,7 +1833,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>6.449609313867044</v>
+        <v>6.449609313867038</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1841,7 +1841,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>6.419831859567268</v>
+        <v>6.419831859567261</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1849,7 +1849,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6.244379101250447</v>
+        <v>6.244379101250451</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1857,7 +1857,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>6.086673413994457</v>
+        <v>6.08667341399446</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1873,7 +1873,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>4.489862880509098</v>
+        <v>4.489862880509099</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1881,7 +1881,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>4.035373865301269</v>
+        <v>4.035373865301262</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1889,7 +1889,7 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>3.96605205309487</v>
+        <v>3.966052053094864</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1897,7 +1897,7 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>3.88040841351178</v>
+        <v>3.880408413511822</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1905,7 +1905,7 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <v>3.725658322994094</v>
+        <v>3.725658322994096</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1913,7 +1913,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.61702028201652</v>
+        <v>3.617020282016516</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1921,7 +1921,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2.979696944240591</v>
+        <v>2.979696944240587</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1929,7 +1929,7 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <v>2.923747014273117</v>
+        <v>2.923747014273123</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1937,7 +1937,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>2.228661634978794</v>
+        <v>2.22866163497879</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1945,7 +1945,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1.708161604797821</v>
+        <v>1.70816160479783</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1953,7 +1953,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.397251992349665</v>
+        <v>1.397251992349667</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1961,7 +1961,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1.339455482989264</v>
+        <v>1.339455482989269</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1969,7 +1969,7 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>1.318429432967663</v>
+        <v>1.318429432967666</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1977,7 +1977,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>1.310395810218246</v>
+        <v>1.310395810218243</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1985,7 +1985,7 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>1.124686363035689</v>
+        <v>1.1246863630357</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2001,7 +2001,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1.004883330323769</v>
+        <v>1.004883330323759</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2009,7 +2009,7 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.8561141058435991</v>
+        <v>0.8561141058435986</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2017,7 +2017,7 @@
         <v>24</v>
       </c>
       <c r="B32">
-        <v>0.7412554964451303</v>
+        <v>0.7412554964451322</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2025,7 +2025,7 @@
         <v>21</v>
       </c>
       <c r="B33">
-        <v>0.5568777814439017</v>
+        <v>0.5568777814438927</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2033,7 +2033,7 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>0.4702801944431675</v>
+        <v>0.4702801944431801</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2041,7 +2041,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.3179814583638901</v>
+        <v>0.3179814583638935</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2113,7 +2113,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>-0.2069420116388763</v>
+        <v>-0.206942011638878</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2121,7 +2121,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>-0.2458476961137578</v>
+        <v>-0.245847696113756</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2129,7 +2129,7 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>-0.3234007813081025</v>
+        <v>-0.3234007813080968</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2137,7 +2137,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-1.047102937428211</v>
+        <v>-1.047102937428213</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2145,7 +2145,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>-1.048722773473862</v>
+        <v>-1.048722773473864</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2153,7 +2153,7 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>-1.080784580724281</v>
+        <v>-1.080784580724276</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2161,7 +2161,7 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>-1.268307579311917</v>
+        <v>-1.268307579311908</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2169,7 +2169,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-1.480579360649182</v>
+        <v>-1.480579360649187</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2177,7 +2177,7 @@
         <v>15</v>
       </c>
       <c r="B52">
-        <v>-1.881456457407945</v>
+        <v>-1.881456457407922</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2185,7 +2185,7 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>-1.945105482234293</v>
+        <v>-1.945105482234302</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2193,7 +2193,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-2.087284687321537</v>
+        <v>-2.087284687321553</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2209,7 +2209,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-2.322990603139946</v>
+        <v>-2.322990603139947</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2217,7 +2217,7 @@
         <v>47</v>
       </c>
       <c r="B57">
-        <v>-2.645274144326052</v>
+        <v>-2.645274144326055</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2225,7 +2225,7 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>-2.817294992220412</v>
+        <v>-2.817294992220408</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2233,7 +2233,7 @@
         <v>56</v>
       </c>
       <c r="B59">
-        <v>-3.278199708424301</v>
+        <v>-3.278199708424297</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2241,7 +2241,7 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>-3.727992740042504</v>
+        <v>-3.727992740042501</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2249,7 +2249,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-3.809956089799451</v>
+        <v>-3.809956089799459</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2257,7 +2257,7 @@
         <v>57</v>
       </c>
       <c r="B62">
-        <v>-4.146660652802046</v>
+        <v>-4.146660652802034</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2265,7 +2265,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-4.206354685390349</v>
+        <v>-4.20635468539034</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2281,7 +2281,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-4.936018750314703</v>
+        <v>-4.936018750314711</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2289,7 +2289,7 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>-5.120797805050931</v>
+        <v>-5.120797805050938</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2297,7 +2297,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>-7.308020812865497</v>
+        <v>-7.3080208128655</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2305,7 +2305,7 @@
         <v>63</v>
       </c>
       <c r="B68">
-        <v>-7.703613464175305</v>
+        <v>-7.703613464175312</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2313,7 +2313,7 @@
         <v>66</v>
       </c>
       <c r="B69">
-        <v>-8.356382237739572</v>
+        <v>-8.356382237739574</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2321,7 +2321,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-9.144027743822807</v>
+        <v>-9.144027743822809</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2329,7 +2329,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-9.481341510018014</v>
+        <v>-9.481341510018023</v>
       </c>
     </row>
     <row r="72" spans="1:2">
